--- a/fluxes_90_dense_metabolism.xlsx
+++ b/fluxes_90_dense_metabolism.xlsx
@@ -1111,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>14.26145701648954</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0.608810339613296</v>
@@ -1420,7 +1420,7 @@
         <v>7.769754658289398</v>
       </c>
       <c r="D5">
-        <v>0.971041499487307</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0.7099747588843368</v>
@@ -1729,7 +1729,7 @@
         <v>0.9681490972055486</v>
       </c>
       <c r="E6">
-        <v>0.9591532187617846</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0.7430509536655311</v>
@@ -2038,7 +2038,7 @@
         <v>0.8239749208532322</v>
       </c>
       <c r="F7">
-        <v>0.7229261160600456</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0.9951222108192305</v>
@@ -2347,7 +2347,7 @@
         <v>0.6755817809628449</v>
       </c>
       <c r="G8">
-        <v>0.7024095464228284</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0.5777975866917571</v>
@@ -2656,7 +2656,7 @@
         <v>1.185401385617556</v>
       </c>
       <c r="H9">
-        <v>1.155911421146407</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>1.009649323981539</v>
@@ -2965,7 +2965,7 @@
         <v>0.840449936202692</v>
       </c>
       <c r="I10">
-        <v>1.085302835543433</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0.5149444446846939</v>
@@ -3274,7 +3274,7 @@
         <v>0.970351517730663</v>
       </c>
       <c r="J11">
-        <v>0.9183843854703712</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0.6243172180979041</v>
@@ -3583,7 +3583,7 @@
         <v>0.6465653194765255</v>
       </c>
       <c r="K12">
-        <v>1.053237756186435</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0.6926177598056669</v>
@@ -3892,7 +3892,7 @@
         <v>0.8266753747962485</v>
       </c>
       <c r="L13">
-        <v>0.6619226358425458</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0.7124194429960057</v>
@@ -4201,7 +4201,7 @@
         <v>1.189271328422553</v>
       </c>
       <c r="M14">
-        <v>0.4958460192325986</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0.8009612401188853</v>
@@ -4510,7 +4510,7 @@
         <v>0.9371433616748794</v>
       </c>
       <c r="N15">
-        <v>0.9236176723438817</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0.7573896477803155</v>
@@ -4819,7 +4819,7 @@
         <v>0.5332409542218018</v>
       </c>
       <c r="O16">
-        <v>0.9864485361665999</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0.6604943257906125</v>
@@ -5128,7 +5128,7 @@
         <v>1.270505339516819</v>
       </c>
       <c r="P17">
-        <v>0.6253687979194347</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>1.312152759522627</v>
@@ -5437,7 +5437,7 @@
         <v>0.556936421096302</v>
       </c>
       <c r="Q18">
-        <v>0.6709764589700173</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>0.9366697623405091</v>
@@ -5746,7 +5746,7 @@
         <v>0.7962465438120424</v>
       </c>
       <c r="R19">
-        <v>1.199058185670893</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <v>0.4798663062665595</v>
@@ -6055,7 +6055,7 @@
         <v>0.9921875736474484</v>
       </c>
       <c r="S20">
-        <v>1.106165850605551</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>0.9768303631233476</v>
@@ -6364,7 +6364,7 @@
         <v>0.756719892290154</v>
       </c>
       <c r="T21">
-        <v>0.7901691158293104</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>1.075062249619881</v>
@@ -6673,7 +6673,7 @@
         <v>0.9021167555544926</v>
       </c>
       <c r="U22">
-        <v>1.019248558074773</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>0.5977374100100343</v>
@@ -6982,7 +6982,7 @@
         <v>0.7413253682415021</v>
       </c>
       <c r="V23">
-        <v>0.6616895113738571</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>0.7907929480312873</v>
@@ -7291,7 +7291,7 @@
         <v>0.6685638397018823</v>
       </c>
       <c r="W24">
-        <v>0.4600850103137167</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <v>0.8742652306172192</v>
@@ -7600,7 +7600,7 @@
         <v>0.8657693626883606</v>
       </c>
       <c r="X25">
-        <v>0.841483980810665</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0.633166968835962</v>
@@ -7909,7 +7909,7 @@
         <v>0.5271837013902165</v>
       </c>
       <c r="Y26">
-        <v>0.6324262457247145</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <v>1.210252739578244</v>
@@ -8218,7 +8218,7 @@
         <v>0.9701669740426775</v>
       </c>
       <c r="Z27">
-        <v>0.4932083172966303</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>1.359890833559815</v>
@@ -8527,7 +8527,7 @@
         <v>0.7582189993718043</v>
       </c>
       <c r="AA28">
-        <v>0.5985598317224448</v>
+        <v>0</v>
       </c>
       <c r="AB28">
         <v>0.4824536137073918</v>
@@ -8838,7 +8838,7 @@
         <v>0.8923930885256227</v>
       </c>
       <c r="AB29">
-        <v>0.9122756627716311</v>
+        <v>0</v>
       </c>
       <c r="AC29">
         <v>0.8495199326421146</v>
@@ -9147,7 +9147,7 @@
         <v>0.7609238407405861</v>
       </c>
       <c r="AC30">
-        <v>0.6570210842703847</v>
+        <v>0</v>
       </c>
       <c r="AD30">
         <v>0.5558335790906835</v>
@@ -9456,7 +9456,7 @@
         <v>0.8982363669416625</v>
       </c>
       <c r="AD31">
-        <v>0.4639957946906233</v>
+        <v>0</v>
       </c>
       <c r="AE31">
         <v>0.7408550451358659</v>
@@ -9765,7 +9765,7 @@
         <v>0.7814302136787749</v>
       </c>
       <c r="AE32">
-        <v>1.153219341509097</v>
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0.8468613693090964</v>
@@ -10074,7 +10074,7 @@
         <v>0.4821395109213298</v>
       </c>
       <c r="AF33">
-        <v>0.5133884252610423</v>
+        <v>0</v>
       </c>
       <c r="AG33">
         <v>0.5865570302722017</v>
@@ -10383,7 +10383,7 @@
         <v>0.7029910641677861</v>
       </c>
       <c r="AG34">
-        <v>0.8569623009744807</v>
+        <v>0</v>
       </c>
       <c r="AH34">
         <v>0.7129456242396364</v>
@@ -10692,7 +10692,7 @@
         <v>0.8673871161703234</v>
       </c>
       <c r="AH35">
-        <v>0.8220504320439981</v>
+        <v>0</v>
       </c>
       <c r="AI35">
         <v>0.8707006735521964</v>
@@ -11001,7 +11001,7 @@
         <v>0.8178557126517469</v>
       </c>
       <c r="AI36">
-        <v>0.4455419100853828</v>
+        <v>0</v>
       </c>
       <c r="AJ36">
         <v>0.5744941110024974</v>
@@ -11310,7 +11310,7 @@
         <v>0.4731144151915292</v>
       </c>
       <c r="AJ37">
-        <v>0.9610417228289534</v>
+        <v>0</v>
       </c>
       <c r="AK37">
         <v>0.8680836791444599</v>
@@ -11619,7 +11619,7 @@
         <v>0.4850815452779247</v>
       </c>
       <c r="AK38">
-        <v>0.9132897638633376</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>0.6796515960886305</v>
@@ -11928,7 +11928,7 @@
         <v>1.367117135601893</v>
       </c>
       <c r="AL39">
-        <v>0.6744195921268547</v>
+        <v>0</v>
       </c>
       <c r="AM39">
         <v>0.5755255728972679</v>
@@ -12237,7 +12237,7 @@
         <v>0.8479820512784642</v>
       </c>
       <c r="AM40">
-        <v>0.9421704009308758</v>
+        <v>0</v>
       </c>
       <c r="AN40">
         <v>0.9017771602817991</v>
@@ -12546,7 +12546,7 @@
         <v>0.4434553445596074</v>
       </c>
       <c r="AN41">
-        <v>0.6162046515968764</v>
+        <v>0</v>
       </c>
       <c r="AO41">
         <v>0.6696360589680459</v>
@@ -12855,7 +12855,7 @@
         <v>0.6385068228192775</v>
       </c>
       <c r="AO42">
-        <v>0.6620748067827211</v>
+        <v>0</v>
       </c>
       <c r="AP42">
         <v>0.6899494759920615</v>
@@ -13164,7 +13164,7 @@
         <v>0.5897388298167131</v>
       </c>
       <c r="AP43">
-        <v>0.5857130169556437</v>
+        <v>0</v>
       </c>
       <c r="AQ43">
         <v>0.5835025875654519</v>
@@ -13473,7 +13473,7 @@
         <v>0.2486088315269117</v>
       </c>
       <c r="AQ44">
-        <v>0.4644559152828379</v>
+        <v>0</v>
       </c>
       <c r="AR44">
         <v>0.6461533248000924</v>
@@ -13782,7 +13782,7 @@
         <v>0.6970891667484546</v>
       </c>
       <c r="AR45">
-        <v>1.000379202281951</v>
+        <v>0</v>
       </c>
       <c r="AS45">
         <v>0.691205461004338</v>
@@ -14091,7 +14091,7 @@
         <v>0.8569905392476842</v>
       </c>
       <c r="AS46">
-        <v>1.246104313538442</v>
+        <v>0</v>
       </c>
       <c r="AT46">
         <v>0.4272977052852148</v>
@@ -14400,7 +14400,7 @@
         <v>0.8767087395845408</v>
       </c>
       <c r="AT47">
-        <v>0.6783131445771517</v>
+        <v>0</v>
       </c>
       <c r="AU47">
         <v>0.75004878408739</v>
@@ -14709,7 +14709,7 @@
         <v>0.8318731000279519</v>
       </c>
       <c r="AU48">
-        <v>0.7512334552610817</v>
+        <v>0</v>
       </c>
       <c r="AV48">
         <v>0.7621311972144872</v>
@@ -15018,7 +15018,7 @@
         <v>0.5503722967273345</v>
       </c>
       <c r="AV49">
-        <v>0.7276712699791876</v>
+        <v>0</v>
       </c>
       <c r="AW49">
         <v>0.3227969857335015</v>
@@ -15327,7 +15327,7 @@
         <v>0.844249444484186</v>
       </c>
       <c r="AW50">
-        <v>0.7950647888036388</v>
+        <v>0</v>
       </c>
       <c r="AX50">
         <v>1.049799845429839</v>
@@ -15636,7 +15636,7 @@
         <v>0.8468559248875004</v>
       </c>
       <c r="AX51">
-        <v>1.074474317338721</v>
+        <v>0</v>
       </c>
       <c r="AY51">
         <v>0.9015904564920311</v>
@@ -15945,7 +15945,7 @@
         <v>1.433614988155649</v>
       </c>
       <c r="AY52">
-        <v>0.9021414428374176</v>
+        <v>0</v>
       </c>
       <c r="AZ52">
         <v>0.9245422700574071</v>
@@ -16254,7 +16254,7 @@
         <v>0.7809092530992507</v>
       </c>
       <c r="AZ53">
-        <v>0.4625455680363062</v>
+        <v>0</v>
       </c>
       <c r="BA53">
         <v>0.7468607770437085</v>
@@ -16565,7 +16565,7 @@
         <v>0.5385325176419062</v>
       </c>
       <c r="BA54">
-        <v>0.5317304480389143</v>
+        <v>0</v>
       </c>
       <c r="BB54">
         <v>0.6107109006767735</v>
@@ -16874,7 +16874,7 @@
         <v>0.8398066188843171</v>
       </c>
       <c r="BB55">
-        <v>0.4253997732807909</v>
+        <v>0</v>
       </c>
       <c r="BC55">
         <v>0.7168247904745045</v>
@@ -17183,7 +17183,7 @@
         <v>1.369124111468818</v>
       </c>
       <c r="BC56">
-        <v>0.7295935670542686</v>
+        <v>0</v>
       </c>
       <c r="BD56">
         <v>0.8411607526266611</v>
@@ -17492,7 +17492,7 @@
         <v>0.472764042541316</v>
       </c>
       <c r="BD57">
-        <v>0.2773844455682</v>
+        <v>0</v>
       </c>
       <c r="BE57">
         <v>0.6791087331484859</v>
@@ -17801,7 +17801,7 @@
         <v>0.5218249561633028</v>
       </c>
       <c r="BE58">
-        <v>0.6303307309455408</v>
+        <v>0</v>
       </c>
       <c r="BF58">
         <v>1.089386289248273</v>
@@ -18110,7 +18110,7 @@
         <v>0.4760731467888976</v>
       </c>
       <c r="BF59">
-        <v>0.4335790054684084</v>
+        <v>0</v>
       </c>
       <c r="BG59">
         <v>0.5645392911001866</v>
@@ -18419,7 +18419,7 @@
         <v>0.6110609450680711</v>
       </c>
       <c r="BG60">
-        <v>0.5656046302211422</v>
+        <v>0</v>
       </c>
       <c r="BH60">
         <v>0.7529074143229156</v>
@@ -18728,7 +18728,7 @@
         <v>0.7048269638183839</v>
       </c>
       <c r="BH61">
-        <v>0.8365334365376494</v>
+        <v>0</v>
       </c>
       <c r="BI61">
         <v>0.7555163549821032</v>
@@ -19037,7 +19037,7 @@
         <v>1.037290355554956</v>
       </c>
       <c r="BI62">
-        <v>0.4453084178553356</v>
+        <v>0</v>
       </c>
       <c r="BJ62">
         <v>0.9420501044672933</v>
@@ -19346,7 +19346,7 @@
         <v>0.9103203667566073</v>
       </c>
       <c r="BJ63">
-        <v>0.7937799520823994</v>
+        <v>0</v>
       </c>
       <c r="BK63">
         <v>0.7567125864473679</v>
@@ -19655,7 +19655,7 @@
         <v>0.6737491448506719</v>
       </c>
       <c r="BK64">
-        <v>0.5579962849541361</v>
+        <v>0</v>
       </c>
       <c r="BL64">
         <v>0.85772839798916</v>
@@ -19964,7 +19964,7 @@
         <v>0.5032142091231556</v>
       </c>
       <c r="BL65">
-        <v>0.9768148117791022</v>
+        <v>0</v>
       </c>
       <c r="BM65">
         <v>0.9412059683852262</v>
@@ -20273,7 +20273,7 @@
         <v>0.5053018336797465</v>
       </c>
       <c r="BM66">
-        <v>0.9856241072121463</v>
+        <v>0</v>
       </c>
       <c r="BN66">
         <v>0.5419932655798043</v>
@@ -20582,7 +20582,7 @@
         <v>0.7879951152479264</v>
       </c>
       <c r="BN67">
-        <v>0.8715162533338259</v>
+        <v>0</v>
       </c>
       <c r="BO67">
         <v>0.9126662921226883</v>
@@ -20891,7 +20891,7 @@
         <v>0.8424623839782444</v>
       </c>
       <c r="BO68">
-        <v>0.9534632024788717</v>
+        <v>0</v>
       </c>
       <c r="BP68">
         <v>0.6533263171511771</v>
@@ -21200,7 +21200,7 @@
         <v>0.7854846290810307</v>
       </c>
       <c r="BP69">
-        <v>0.5784286935008593</v>
+        <v>0</v>
       </c>
       <c r="BQ69">
         <v>0.6600240197657949</v>
@@ -21509,7 +21509,7 @@
         <v>0.6927608946401634</v>
       </c>
       <c r="BQ70">
-        <v>0.8405257988389289</v>
+        <v>0</v>
       </c>
       <c r="BR70">
         <v>0.3192425018821392</v>
@@ -21818,7 +21818,7 @@
         <v>1.011629543722127</v>
       </c>
       <c r="BR71">
-        <v>1.06455569448584</v>
+        <v>0</v>
       </c>
       <c r="BS71">
         <v>0.4059204437907468</v>
@@ -22127,7 +22127,7 @@
         <v>0.6312553027991308</v>
       </c>
       <c r="BS72">
-        <v>0.7674312476460521</v>
+        <v>0</v>
       </c>
       <c r="BT72">
         <v>0.4373662202414709</v>
@@ -22436,7 +22436,7 @@
         <v>0.8756332449301003</v>
       </c>
       <c r="BT73">
-        <v>0.6574641380271576</v>
+        <v>0</v>
       </c>
       <c r="BU73">
         <v>0.5386120727618072</v>
@@ -22745,7 +22745,7 @@
         <v>0.6815105225835385</v>
       </c>
       <c r="BU74">
-        <v>0.3824375004935115</v>
+        <v>0</v>
       </c>
       <c r="BV74">
         <v>0.4868249711486385</v>
@@ -23054,7 +23054,7 @@
         <v>0.6456771712155184</v>
       </c>
       <c r="BV75">
-        <v>0.8401003376987748</v>
+        <v>0</v>
       </c>
       <c r="BW75">
         <v>0.5842191215168117</v>
@@ -23363,7 +23363,7 @@
         <v>0.8973351800973692</v>
       </c>
       <c r="BW76">
-        <v>0.294976017386856</v>
+        <v>0</v>
       </c>
       <c r="BX76">
         <v>0.7187279371195127</v>
@@ -23672,7 +23672,7 @@
         <v>0.5947972305001016</v>
       </c>
       <c r="BX77">
-        <v>0.5394371177740996</v>
+        <v>0</v>
       </c>
       <c r="BY77">
         <v>0.8075231696318671</v>
@@ -23981,7 +23981,7 @@
         <v>0.4303723227163713</v>
       </c>
       <c r="BY78">
-        <v>0.4993938802275426</v>
+        <v>0</v>
       </c>
       <c r="BZ78">
         <v>0.9799777489627576</v>
@@ -24292,7 +24292,7 @@
         <v>0.4412874609244383</v>
       </c>
       <c r="BZ79">
-        <v>0.4344117488954332</v>
+        <v>0</v>
       </c>
       <c r="CA79">
         <v>1.381975336630731</v>
@@ -24601,7 +24601,7 @@
         <v>0.6270955147215425</v>
       </c>
       <c r="CA80">
-        <v>0.6925592933740201</v>
+        <v>0</v>
       </c>
       <c r="CB80">
         <v>0.4850383839615484</v>
@@ -24910,7 +24910,7 @@
         <v>0.8785175905852949</v>
       </c>
       <c r="CB81">
-        <v>1.090494408096403</v>
+        <v>0</v>
       </c>
       <c r="CC81">
         <v>1.030413390312655</v>
@@ -25219,7 +25219,7 @@
         <v>0.773479581813113</v>
       </c>
       <c r="CC82">
-        <v>1.098073355350152</v>
+        <v>0</v>
       </c>
       <c r="CD82">
         <v>0.579451246803046</v>
@@ -25528,7 +25528,7 @@
         <v>0.7508612813490624</v>
       </c>
       <c r="CD83">
-        <v>0.4437367881824452</v>
+        <v>0</v>
       </c>
       <c r="CE83">
         <v>0.3540797588365335</v>
@@ -25837,7 +25837,7 @@
         <v>0.8291176677864063</v>
       </c>
       <c r="CE84">
-        <v>0.5081537844226443</v>
+        <v>0</v>
       </c>
       <c r="CF84">
         <v>0.5086438413373294</v>
@@ -26146,7 +26146,7 @@
         <v>0.7286347829805213</v>
       </c>
       <c r="CF85">
-        <v>0.5848867406745805</v>
+        <v>0</v>
       </c>
       <c r="CG85">
         <v>1.05426542448005</v>
@@ -26455,7 +26455,7 @@
         <v>0.8348879225839789</v>
       </c>
       <c r="CG86">
-        <v>0.7215065280622349</v>
+        <v>0</v>
       </c>
       <c r="CH86">
         <v>0.5999862418602586</v>
@@ -26764,7 +26764,7 @@
         <v>0.6644181103170573</v>
       </c>
       <c r="CH87">
-        <v>0.7739740045135169</v>
+        <v>0</v>
       </c>
       <c r="CI87">
         <v>0.6920997263553095</v>
@@ -27073,7 +27073,7 @@
         <v>0.9020512365374519</v>
       </c>
       <c r="CI88">
-        <v>0.4902763547536851</v>
+        <v>0</v>
       </c>
       <c r="CJ88">
         <v>0.5428023678212879</v>
@@ -27382,7 +27382,7 @@
         <v>0.7409555577777679</v>
       </c>
       <c r="CJ89">
-        <v>1.183410391606722</v>
+        <v>0</v>
       </c>
       <c r="CK89">
         <v>0.8531120895729876</v>
@@ -27691,7 +27691,7 @@
         <v>1.023033576502696</v>
       </c>
       <c r="CK90">
-        <v>0.327470177476449</v>
+        <v>0</v>
       </c>
       <c r="CL90">
         <v>0.8643080966508103</v>
@@ -28000,7 +28000,7 @@
         <v>0.5470312820403991</v>
       </c>
       <c r="CL91">
-        <v>0.2276921536548819</v>
+        <v>0</v>
       </c>
       <c r="CM91">
         <v>0.3200365671623646</v>
@@ -28309,7 +28309,7 @@
         <v>0.815690579125276</v>
       </c>
       <c r="CM92">
-        <v>0.4522477425608812</v>
+        <v>0</v>
       </c>
       <c r="CN92">
         <v>0.6338158113672061</v>
@@ -28618,7 +28618,7 @@
         <v>0.8342921778635009</v>
       </c>
       <c r="CN93">
-        <v>1.038085607630751</v>
+        <v>0</v>
       </c>
       <c r="CO93">
         <v>0.7190090218580156</v>
@@ -28927,7 +28927,7 @@
         <v>1.247399287644792</v>
       </c>
       <c r="CO94">
-        <v>1.246839540125246</v>
+        <v>0</v>
       </c>
       <c r="CP94">
         <v>0.4971164102503082</v>
@@ -29236,7 +29236,7 @@
         <v>0.4889557414241239</v>
       </c>
       <c r="CP95">
-        <v>0.8707607318286759</v>
+        <v>0</v>
       </c>
       <c r="CQ95">
         <v>0.6664497868560816</v>
@@ -29545,7 +29545,7 @@
         <v>0.6747238873902033</v>
       </c>
       <c r="CQ96">
-        <v>0.805808698070791</v>
+        <v>0</v>
       </c>
       <c r="CR96">
         <v>0.7068305446802075</v>
@@ -29854,7 +29854,7 @@
         <v>0.5289637803715308</v>
       </c>
       <c r="CR97">
-        <v>0.520547906546041</v>
+        <v>0</v>
       </c>
       <c r="CS97">
         <v>1.108358117674233</v>
@@ -30163,7 +30163,7 @@
         <v>0.9784882764766959</v>
       </c>
       <c r="CS98">
-        <v>0.8544239832108288</v>
+        <v>0</v>
       </c>
       <c r="CT98">
         <v>1.010996905202221</v>
@@ -30472,7 +30472,7 @@
         <v>0.768208146611966</v>
       </c>
       <c r="CT99">
-        <v>1.043792893637332</v>
+        <v>0</v>
       </c>
       <c r="CU99">
         <v>0.5656470956275144</v>
@@ -30781,7 +30781,7 @@
         <v>1.353203266203801</v>
       </c>
       <c r="CU100">
-        <v>0.8449461709477853</v>
+        <v>0</v>
       </c>
       <c r="CV100">
         <v>0.9386585390229892</v>
@@ -31090,7 +31090,7 @@
         <v>0.5443060435971283</v>
       </c>
       <c r="CV101">
-        <v>0.5895210417939634</v>
+        <v>0</v>
       </c>
       <c r="CW101">
         <v>0.9055277456724563</v>
@@ -31399,7 +31399,7 @@
         <v>0.7725949869703803</v>
       </c>
       <c r="CW102">
-        <v>0.746577538084781</v>
+        <v>0</v>
       </c>
       <c r="CX102">
         <v>0.6413011441589932</v>
@@ -31708,7 +31708,7 @@
         <v>0.6293953525958119</v>
       </c>
       <c r="CX103">
-        <v>0.547766505071007</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
